--- a/src/main/resources/database_backup/product_table.xlsx
+++ b/src/main/resources/database_backup/product_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -38,22 +38,25 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Penne</t>
+    <t>Nudeln</t>
   </si>
   <si>
-    <t>FRUIT</t>
+    <t>PASTA</t>
   </si>
   <si>
     <t>500</t>
   </si>
   <si>
-    <t>50</t>
+    <t>499</t>
   </si>
   <si>
-    <t>10</t>
+    <t>60</t>
   </si>
   <si>
-    <t>2</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>GRAM</t>
@@ -167,19 +170,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/database_backup/product_table.xlsx
+++ b/src/main/resources/database_backup/product_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -38,15 +38,36 @@
     <t>Unit</t>
   </si>
   <si>
+    <t>Apfel</t>
+  </si>
+  <si>
+    <t>FRUIT</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>GRAM</t>
+  </si>
+  <si>
+    <t>Nudel</t>
+  </si>
+  <si>
     <t>Nudeln</t>
   </si>
   <si>
     <t>PASTA</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>499</t>
   </si>
   <si>
@@ -57,9 +78,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>GRAM</t>
   </si>
 </sst>
 </file>
@@ -123,7 +141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,10 +197,62 @@
         <v>13</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="H2" t="s" s="2">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>15</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
